--- a/frontend/src/assets/template/competency-template.xlsx
+++ b/frontend/src/assets/template/competency-template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bad\Github\irshad-itrans-react5\frontend\src\assets\template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bad\Github\irshad-itrans-react7\frontend\src\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9734CAE1-01FD-4B54-A8CB-B9FC84FDC37C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D698D95-3519-4536-9FFE-9EA5C2BB6EA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,30 +41,6 @@
     <t>competency_description</t>
   </si>
   <si>
-    <t>(ex. How staff respond to working with others in a group )</t>
-  </si>
-  <si>
-    <t>(ex. Team Work )</t>
-  </si>
-  <si>
-    <t>competency_cluster</t>
-  </si>
-  <si>
-    <t>(ex. Functional )</t>
-  </si>
-  <si>
-    <t>(ex. Physical activities )</t>
-  </si>
-  <si>
-    <t>(ex. Brainstorming )</t>
-  </si>
-  <si>
-    <t>(ex. Task delegation )</t>
-  </si>
-  <si>
-    <t>(ex. Compiled task )</t>
-  </si>
-  <si>
     <t>competency_level1</t>
   </si>
   <si>
@@ -92,19 +68,43 @@
     <t>competency_level5</t>
   </si>
   <si>
-    <t>(ex. Awareness )</t>
-  </si>
-  <si>
-    <t>(ex. Knowledge )</t>
-  </si>
-  <si>
-    <t>(ex. Skill )</t>
-  </si>
-  <si>
-    <t>(ex. Advance )</t>
-  </si>
-  <si>
-    <t>(ex. Master )</t>
+    <t>(eg. Team Work )</t>
+  </si>
+  <si>
+    <t>(eg. How staff respond to working with others in a group )</t>
+  </si>
+  <si>
+    <t>(eg. Functional )</t>
+  </si>
+  <si>
+    <t>(eg. Awareness )</t>
+  </si>
+  <si>
+    <t>(eg. Knowledge )</t>
+  </si>
+  <si>
+    <t>(eg. Skill )</t>
+  </si>
+  <si>
+    <t>(eg. Advance )</t>
+  </si>
+  <si>
+    <t>(eg. Master )</t>
+  </si>
+  <si>
+    <t>(eg. Active listening and providing constructive feedback )</t>
+  </si>
+  <si>
+    <t>(eg. Willingness to assist and support team members )</t>
+  </si>
+  <si>
+    <t>(eg. Addressing and resolving conflicts constructively )</t>
+  </si>
+  <si>
+    <t>(eg. Prioritizing team success over individual recognition )</t>
+  </si>
+  <si>
+    <t>competency_type</t>
   </si>
 </sst>
 </file>
@@ -674,7 +674,7 @@
   <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{70D76593-B824-46A3-A1E8-808953B867C5}" name="competency_name"/>
     <tableColumn id="2" xr3:uid="{B949BB46-A44C-47FA-9480-60A07BFC956C}" name="competency_description"/>
-    <tableColumn id="3" xr3:uid="{C962495F-075B-442C-9C91-ECA8A08EA36B}" name="competency_cluster"/>
+    <tableColumn id="3" xr3:uid="{C962495F-075B-442C-9C91-ECA8A08EA36B}" name="competency_type"/>
     <tableColumn id="4" xr3:uid="{1D04C8DE-E1FE-4BC5-B858-5F3B9313D9B0}" name="competency_indicator1"/>
     <tableColumn id="5" xr3:uid="{A2DF74DC-2584-4082-9733-3BBD97BD0D14}" name="competency_indicator2"/>
     <tableColumn id="6" xr3:uid="{ED977225-EE83-4E85-9A89-1C791FD95985}" name="competency_indicator3"/>
@@ -690,9 +690,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -730,7 +730,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -836,7 +836,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -978,7 +978,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -988,8 +988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1016,72 +1016,72 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
